--- a/target/test-classes/Excel/highlight.xlsx
+++ b/target/test-classes/Excel/highlight.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">highlights</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t xml:space="preserve">External Antenna</t>
+  </si>
+  <si>
+    <t>Type: Wireless Without Modem</t>
+  </si>
+  <si>
+    <t>300 Mbps Speed</t>
+  </si>
+  <si>
+    <t>Frequency: 2.4 GHz</t>
+  </si>
+  <si>
+    <t>External Antenna</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="32.37" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -154,26 +166,26 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
